--- a/public/files/tb/tb-excel-form.xlsx
+++ b/public/files/tb/tb-excel-form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amitdugar/Sites/localhost/ept/public/files/tb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04DD945-E089-D346-9BA4-CC5466E1DA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD5C9AB-B41C-094E-BA55-E957ECAC9DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="491" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,28 +353,6 @@
     <t>Comments:</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">This form is for your site's proﬁciency test records only. All results must be submitted in ePT at </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Daytona"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://mtbept.com </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Daytona"/>
-        <family val="2"/>
-      </rPr>
-      <t>using your username and password above.</t>
-    </r>
-  </si>
-  <si>
     <t>ATTESTATION</t>
   </si>
   <si>
@@ -485,6 +463,28 @@
   <si>
     <t>Expiration Date of Cartridge/Assay</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This form is for your site's proﬁciency test records only. All results must be submitted in ePT at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Daytona"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://mtbept.com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Daytona"/>
+        <family val="2"/>
+      </rPr>
+      <t>using your username and password above.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -493,7 +493,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +575,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Daytona"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Daytona"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Daytona"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -604,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -667,54 +684,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -764,50 +733,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -817,9 +788,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -853,161 +821,140 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1357,1008 +1304,1008 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:W24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="6"/>
-    <col min="3" max="16" width="2.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="6" customWidth="1"/>
-    <col min="19" max="19" width="13" style="6" customWidth="1"/>
-    <col min="20" max="20" width="6.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.1640625" style="6" customWidth="1"/>
-    <col min="24" max="16384" width="9.1640625" style="6"/>
+    <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="16" width="4.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.1640625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
     </row>
     <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
     </row>
     <row r="3" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
     </row>
     <row r="4" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
     </row>
     <row r="5" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="34" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="34" t="s">
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="35"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="42"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="22"/>
     </row>
     <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="43" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="34" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="48"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
     </row>
     <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="34" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="49" t="s">
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="U10" s="50"/>
-      <c r="V10" s="49" t="s">
+      <c r="U10" s="59"/>
+      <c r="V10" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="W10" s="50"/>
+      <c r="W10" s="59"/>
     </row>
     <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="34" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="48"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="34" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+    </row>
+    <row r="13" spans="1:23" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+    </row>
+    <row r="15" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+    </row>
+    <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+    </row>
+    <row r="18" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+    </row>
+    <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+    </row>
+    <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+    </row>
+    <row r="22" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="48"/>
-    </row>
-    <row r="13" spans="1:23" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-    </row>
-    <row r="14" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="66"/>
-    </row>
-    <row r="15" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="V15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-    </row>
-    <row r="17" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-    </row>
-    <row r="18" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-    </row>
-    <row r="19" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-    </row>
-    <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-    </row>
-    <row r="21" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-    </row>
-    <row r="22" spans="1:23" ht="39.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+    </row>
+    <row r="23" spans="1:23" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-    </row>
-    <row r="23" spans="1:23" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="74" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+    </row>
+    <row r="24" spans="1:23" s="4" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="75"/>
-      <c r="W23" s="76"/>
-    </row>
-    <row r="24" spans="1:23" s="15" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+    </row>
+    <row r="25" spans="1:23" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="33"/>
-    </row>
-    <row r="25" spans="1:23" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="34"/>
+    </row>
+    <row r="26" spans="1:23" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="33"/>
-    </row>
-    <row r="26" spans="1:23" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="18"/>
+    </row>
+    <row r="27" spans="1:23" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="31"/>
+    </row>
+    <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+    </row>
+    <row r="29" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="33"/>
-    </row>
-    <row r="27" spans="1:23" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="72"/>
-    </row>
-    <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-    </row>
-    <row r="29" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67" t="s">
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+    </row>
+    <row r="30" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="42"/>
-    </row>
-    <row r="30" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67" t="s">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="77" t="s">
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+    </row>
+    <row r="31" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="79"/>
-    </row>
-    <row r="31" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67" t="s">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+    </row>
+    <row r="32" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+    </row>
+    <row r="33" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="42"/>
-    </row>
-    <row r="32" spans="1:23" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-    </row>
-    <row r="33" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="80"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="80"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -2388,12 +2335,12 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:M12"/>
     <mergeCell ref="O12:S12"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="S7:W7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:M8"/>
     <mergeCell ref="O9:S9"/>
     <mergeCell ref="T9:W9"/>
+    <mergeCell ref="C6:M7"/>
+    <mergeCell ref="A6:B7"/>
     <mergeCell ref="A40:W40"/>
     <mergeCell ref="R1:W1"/>
     <mergeCell ref="H1:Q1"/>
@@ -2406,10 +2353,10 @@
     <mergeCell ref="A21:W21"/>
     <mergeCell ref="A24:W24"/>
     <mergeCell ref="A25:W25"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:M6"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="S6:W6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="S7:W7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.65972222222222221" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId1"/>
@@ -2426,15 +2373,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6472dac-3566-47da-8cea-f43fe9bf8535">
@@ -2445,7 +2383,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FFA1D30A4913CD4188EBD1089D0E4F29" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f652c9da353e6464e0054e9b4c536aa6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6472dac-3566-47da-8cea-f43fe9bf8535" xmlns:ns3="3af21b45-d64b-4e8b-a639-372aba317273" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b00ea58cd670d103ee730d20399e5807" ns2:_="" ns3:_="">
     <xsd:import namespace="a6472dac-3566-47da-8cea-f43fe9bf8535"/>
@@ -2668,15 +2606,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{406F8738-F0C1-443B-9141-D098C4F4DF72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{731EC93D-EDAA-4042-9074-89EFD7834B98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2688,7 +2627,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E2D4C22-0499-4145-858C-3708AEF22358}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2706,4 +2645,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{406F8738-F0C1-443B-9141-D098C4F4DF72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>